--- a/medicine/Enfance/Éditions_Millefeuille/Éditions_Millefeuille.xlsx
+++ b/medicine/Enfance/Éditions_Millefeuille/Éditions_Millefeuille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Millefeuille</t>
+          <t>Éditions_Millefeuille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Éditions Millefeuille[2] sont une maison d’édition pour la jeunesse, située en Bretagne, à Auray dans le Morbihan. Elles publient des livres présentant le patrimoine historique et culturel, par la fiction et par l'image.
+Les Éditions Millefeuille sont une maison d’édition pour la jeunesse, située en Bretagne, à Auray dans le Morbihan. Elles publient des livres présentant le patrimoine historique et culturel, par la fiction et par l'image.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Millefeuille</t>
+          <t>Éditions_Millefeuille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marjolaine et Alain Pereira, les fondateurs des Éditions Millefeuille, sont familiers des sites historiques. Or ils constatent que « quand on visite des sites du patrimoine avec des enfants, il n'y a jamais rien pour eux » et décident de faire connaître ces monuments aux enfants, tout en les initiant à l’histoire[3].
-Ils créent ainsi en octobre 2005 les Éditions Millefeuille qui publient différents albums destinés aux jeunes lecteurs, avec l'objectif de leur présenter les richesses du patrimoine architectural, historique et culturel[4],[5]. Le premier livre, Le Complot de Mortefeuille, paraît en octobre 2006 et inaugure la collection « les Bonbecs dans l’Histoire »[4]. Le livre qui en est la suite nécessite deux ans de travail[4]. 
-Les éditions publient des œuvres d'Évelyne Brisou-Pellen, Samuel Sadaune, Jeanne Taboni Misérazzi, Marjolaine Pereira, Christine Corniolot-Baillot, Cathy Dutruch, Delphine Ratel, Régine Joséphine, Luc Turlan, Gilles Bernier, Jacqueline Corniolo, Anne Ferrier[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marjolaine et Alain Pereira, les fondateurs des Éditions Millefeuille, sont familiers des sites historiques. Or ils constatent que « quand on visite des sites du patrimoine avec des enfants, il n'y a jamais rien pour eux » et décident de faire connaître ces monuments aux enfants, tout en les initiant à l’histoire.
+Ils créent ainsi en octobre 2005 les Éditions Millefeuille qui publient différents albums destinés aux jeunes lecteurs, avec l'objectif de leur présenter les richesses du patrimoine architectural, historique et culturel,. Le premier livre, Le Complot de Mortefeuille, paraît en octobre 2006 et inaugure la collection « les Bonbecs dans l’Histoire ». Le livre qui en est la suite nécessite deux ans de travail. 
+Les éditions publient des œuvres d'Évelyne Brisou-Pellen, Samuel Sadaune, Jeanne Taboni Misérazzi, Marjolaine Pereira, Christine Corniolot-Baillot, Cathy Dutruch, Delphine Ratel, Régine Joséphine, Luc Turlan, Gilles Bernier, Jacqueline Corniolo, Anne Ferrier.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Millefeuille</t>
+          <t>Éditions_Millefeuille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,84 +559,361 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les Éditions Millefeuille, spécialisées dans les albums pour enfants de trois à neuf ans, publient des récits d’aventure, de fiction, ou des albums poétiques, sur le thème du patrimoine, incluant notamment l'histoire, l'architecture, les légendes, la mer, les vieux gréements, les oiseaux[7]...
-Le rythme de publications est de six à huit nouveaux albums et romans par an[3].
-Collection les Bonbecs dans l’Histoire
-Revue Historia - chroniques de livres
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Éditions Millefeuille, spécialisées dans les albums pour enfants de trois à neuf ans, publient des récits d’aventure, de fiction, ou des albums poétiques, sur le thème du patrimoine, incluant notamment l'histoire, l'architecture, les légendes, la mer, les vieux gréements, les oiseaux...
+Le rythme de publications est de six à huit nouveaux albums et romans par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collection les Bonbecs dans l’Histoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Revue Historia - chroniques de livres
 Le Complot de Mortefeuille
 Le Complot : l’Histoire du Livre
-Le Trésor de la Bonbeccante
-Collection Mini-Bonbecs
-Un Chevalier, comme Bayard..., de Marjolaine Pereira et Christine Corniolot-Baillot, 32 pages ; critique dans Historia, 2011[8].
-Une Princesse, comme Iseult...
-Collection Romans Patrimoine
-Le Chevalier Noir
+Le Trésor de la Bonbeccante</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collection Mini-Bonbecs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un Chevalier, comme Bayard..., de Marjolaine Pereira et Christine Corniolot-Baillot, 32 pages ; critique dans Historia, 2011.
+Une Princesse, comme Iseult...</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Collection Romans Patrimoine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Chevalier Noir
 Aimeri et le Secret du Temps
 Aimeri et la Comtesse disparue
 Aimeri et le Royaume caché
-Au cirque !
-Collection Patrimoine Maritime
-Mousse contre Vents et Marées, 2007, dessins de Luc Turlan
+Au cirque !</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collection Patrimoine Maritime</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Mousse contre Vents et Marées, 2007, dessins de Luc Turlan
 L’Île aux Fous
 Le Phare, à Pas Comptés
 Joshua ou la Mer des Histoires
 Le Petit Homme et la Mer
-Tibère a la Pêche !
-Collection Patrimoine de Légendes
-Au Pays d’Ys
+Tibère a la Pêche !</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Éditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Collection Patrimoine de Légendes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Au Pays d’Ys
 le Miroir des Fées
-Pablito, Le Semeur de Mots
-Collection Table Ronde
-Merlin, l'Enfance d'un Enchanteur
+Pablito, Le Semeur de Mots</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Éditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Collection Table Ronde</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Merlin, l'Enfance d'un Enchanteur
 Arthur, l'Enfance d'un Roi
 Morgane, l'Enfance d'une magicienne
-Perceval, l'Enfance d'un rêveur
-Collection Petit Pat’
-Patte rouge
+Perceval, l'Enfance d'un rêveur</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Éditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Collection Petit Pat’</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Patte rouge
 Le Médaillon de Suscinio
 Une Vie de Château
 Archi rigolote des Troglotes
 Tintamarre et le marché de Noël, 2006, dessins de Luc Turlan, texte de Delphine Ratel
 L’Arbre à Vœux, 2007, de Cathy Dutruch
 Intrigues dans les Marais / Suscinio, une Histoire d'Oiseaux
-Chasseurs de légendes à la Roche Jagu
-Collection Trampoline
-La Collection de Bisous
+Chasseurs de légendes à la Roche Jagu</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Éditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Collection Trampoline</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La Collection de Bisous
 Le Secret des Orages
 Petit Pot de Colle
 Je veux des Z'Ailes !</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89ditions_Millefeuille</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Millefeuille</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Éditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Millefeuille</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Animations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les auteurs, illustrateurs et éditeurs de Millefeuille interviennent par ailleurs auprès de différents public, comme les écoles maternelles et primaires, les collèges et les lycées, les bibliothèques et les salons du livre[7]. Les Éditions Millefeuille collaborent également très souvent avec des écoles pour éditer des livres de classe, et même avec des crèches comme à Vannes[9]. La collaboration s’effectue avec un auteur et un illustrateur de la maison. Les animations portent sur la réalisation d’un livre en classe, des ateliers d’écriture et d’illustrations, des explications sur le métier d’éditeur, sur la chaîne du livre, ou encore des rencontres avec des auteurs, des illustrateurs ou des éditeurs. Les éditions diffusent également une valisette pédagogique du « Train du livre », à destination des professionnels de l'éducation et de l'enfance[7].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les auteurs, illustrateurs et éditeurs de Millefeuille interviennent par ailleurs auprès de différents public, comme les écoles maternelles et primaires, les collèges et les lycées, les bibliothèques et les salons du livre. Les Éditions Millefeuille collaborent également très souvent avec des écoles pour éditer des livres de classe, et même avec des crèches comme à Vannes. La collaboration s’effectue avec un auteur et un illustrateur de la maison. Les animations portent sur la réalisation d’un livre en classe, des ateliers d’écriture et d’illustrations, des explications sur le métier d’éditeur, sur la chaîne du livre, ou encore des rencontres avec des auteurs, des illustrateurs ou des éditeurs. Les éditions diffusent également une valisette pédagogique du « Train du livre », à destination des professionnels de l'éducation et de l'enfance.
 </t>
         </is>
       </c>
